--- a/src/test/resources/Data/Input.xlsx
+++ b/src/test/resources/Data/Input.xlsx
@@ -27,13 +27,13 @@
     <t>Title</t>
   </si>
   <si>
+    <t>ToastMessage</t>
+  </si>
+  <si>
+    <t>Please enter your name</t>
+  </si>
+  <si>
     <t>Products</t>
-  </si>
-  <si>
-    <t>ToastMessage</t>
-  </si>
-  <si>
-    <t>Please enter your name</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -408,10 +408,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
